--- a/testing.xlsx
+++ b/testing.xlsx
@@ -1,22 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnsonjm\Desktop\PythonTest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>resp1</t>
+  </si>
+  <si>
+    <t>resp2</t>
+  </si>
+  <si>
+    <t>resp3</t>
+  </si>
+  <si>
+    <t>resp4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +62,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +70,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -130,9 +186,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,6 +221,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -339,13 +397,596 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="38" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>2</v>
+      </c>
+      <c r="AH4">
+        <v>5</v>
+      </c>
+      <c r="AI4">
+        <v>2</v>
+      </c>
+      <c r="AJ4">
+        <v>2</v>
+      </c>
+      <c r="AK4">
+        <v>2</v>
+      </c>
+      <c r="AL4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5">
+        <v>2</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>2</v>
+      </c>
+      <c r="AH5">
+        <v>5</v>
+      </c>
+      <c r="AI5">
+        <v>5</v>
+      </c>
+      <c r="AJ5">
+        <v>2</v>
+      </c>
+      <c r="AK5">
+        <v>5</v>
+      </c>
+      <c r="AL5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>